--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/12_Balıkesir_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/12_Balıkesir_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEBD576-A035-43EE-B72C-1054E8EBB542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B333FC2-D790-4C33-989F-320BDEF95022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{BAB05B67-0F14-4F42-8C6A-C71F6C28F151}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{A0F7B65E-0BCD-4981-9E45-2ABB7485E2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="103" r:id="rId1"/>
@@ -965,13 +965,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{204DE180-0C8C-4532-B06F-4923F1ED6DF6}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DEA5A0BD-D70C-45CD-82CB-D9219A1BAD7F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{FC3406DD-B84F-40F3-A9DF-2F23C47E2D5C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E2A2FA16-DAB4-4C91-B5B6-E7ECA4F26818}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1B77E83E-B8BC-4838-9EF2-8B7FBF9A7EC1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5D65D563-F0FA-41A4-9EBF-3D6F1C6C6EFF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D4AE0203-F6F0-4955-B6B9-3A79EDEBA2F1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8222B09D-F6D7-4741-BCFF-7A3F6DC9957E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5E6B9E9C-BF89-4926-851D-30F64C5FF100}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D6DCFC2C-6A30-4BAB-BFFA-53AFF38F1DC3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CE454CC8-DAD2-44A0-82E0-50B729219B44}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C9886F01-599A-41A7-B8C8-62FC3ECE13C3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B18FAB9A-C21C-4CC4-AE47-FF92CF38592B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8ED1807E-201F-43D8-97BB-E66B05438D51}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B87DE-E027-4DB1-8754-B7391686858F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379AF8F-A410-43BB-A9DB-8C63DC3A2705}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2604,18 +2604,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B74EB6A9-5DF3-44D4-8E6B-0DD152FE745A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B109DF2-6703-46EC-BB98-BD8860A83782}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B61C0426-52F2-4A70-A681-8790FD882C6A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{06D3E80A-4381-4B0C-A8C3-4B4BFA28DB08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E616FB8-BE35-4C6A-AF7A-059061879381}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6935CD0-5CD2-4491-832B-E07742184632}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B7B3FD6-0EA2-4468-B72A-975C5A5042FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F1EEE2A-FB06-45D4-A135-4CE42F36BE3D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{634E3612-69B8-4977-A243-CD9D0B5F174F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{152A9D81-0C80-4608-9E0B-E0BF77B9C0A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{092BA736-A636-49C9-8AAE-9E3366F28F91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62ED3907-83BE-417A-9174-5219D95E0C8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{438E780E-FE20-4B05-96BA-91B105534190}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3AB74CA-DFA9-4911-B357-D5E10FE6AB85}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE7B11BC-3441-4802-94E5-215A2B082DF1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6560D9D9-6433-48C0-B785-24BD23D51B12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1103AB57-0676-4EEF-9DDC-9CA6B0E797DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDBBF7F3-EE65-47EF-97CD-5F725A8D3544}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C45FFD9B-9F76-4EEF-BDAA-23FB1DACE4E8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE329566-C908-4DBC-AFDE-A5AB40179D33}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A219E64A-56DD-4A64-BE42-98AF6354DF7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21DC85C9-07EA-4F2E-8CBA-57B6174C447E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A1725AB-1292-455F-9207-6CB4741799E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BDD830C-956A-405A-AFA5-B0D596AB2428}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2628,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066E52A-D12A-493F-AB88-4E5CBB2AB3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B1C6FA-A03A-482C-84A4-F9AB8896FEF4}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3888,18 +3888,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F911184-8FF1-46F4-8B12-850D364B92D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{218987A9-F78F-49BB-90DA-EA506A92F251}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1A6C556F-E300-4E0D-B965-BDD3968E8CD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCABE1B3-2858-498D-BABE-A5B683D7D7B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{600BA39E-A9A6-4EB7-9E75-E1AB73F92512}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2CC12833-FF95-42A9-ADE7-E2ED35C28641}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D9C67D5-4083-432F-856B-2EF5FC0FAE61}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6E23591-7D8E-485A-BF83-45358826E05B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DA65FB8-7485-4D3B-AA3D-AE763135F398}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A541842-DD11-4D99-A29B-8D4071A7572B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF1F5A2A-941C-42E3-B385-9F51CEF00CA2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E958852E-EC77-4239-A780-0679B6B9B781}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C0091B3-3433-4D40-8B30-70B0FB153A70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE255658-D5A7-4238-BFC1-5C4BCE42CE21}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{432D47BE-2E5F-414B-A291-8C1946F342D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E90E0FFE-C703-4225-AE3C-DC3BB033C777}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E39E8B98-0CA2-4979-9723-A45E928E5B77}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2EFE570-85A7-4FDC-A2AF-966134DA8FE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74910442-988E-4055-ACE1-F689EE0815AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86A3B939-EE9E-4DB7-918B-59301E7189FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19D257A0-67D1-449D-BB4F-DAB417602063}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4B67DEFD-DDA8-4A3F-B7AD-F9240D6AC0A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A12C945-2F67-4A43-B759-05BBB66BC569}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{075A66CC-42FC-4FD9-A4BA-F9B60A1DBA67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3912,7 +3912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA4BEB3-1CFF-4717-89F3-94279980EA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A9998-34F7-4C32-A0CB-1FB1766EDB21}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5164,18 +5164,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9ABA99B-6CF0-44C0-B0C6-BE668CDD3194}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCB93777-EFD8-4086-9646-A3D3C23224B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{962F4F90-79A4-46DD-AE78-439B017CA0D2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{28FB94D7-C778-4245-88F2-F23435411409}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1CA64A5-9BF9-4A20-B68A-2BD010B78F6C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F817C09-9743-40D8-84F1-D36D053E7A11}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01C35B3A-7F6F-48F6-8D5A-5C75D540F9E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2810E14-095A-48F4-816A-2E67D7F33C1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D88082F-9E2C-4282-963B-BE58C239EAFD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{201C307D-1A58-4BB5-A3A4-E4C2B38F944A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F09FF99F-FEC1-40BE-9B34-1B7146002EB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40D53517-98A1-4994-BC75-E32FF7B9E274}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8165FA42-F55F-4A84-B80E-EC61D0BB64E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5784B535-4523-46EE-8DE5-928532207B9E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1BA138A9-30F4-4AED-99BA-936A0659EEDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D39CF374-86C7-49BF-8368-A66A9549A533}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D19CBBB0-E704-4337-80DE-946C35351DD1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5E2505F0-BCF2-45AF-8E58-037B560F9BED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61ECD4F2-E372-47A7-A8C5-F37138BFCBEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B550BAB-D88F-4CFD-8369-17426018684F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{050E425B-C33B-47F9-B012-0E24C49744D2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E916DF73-3CEB-4ABB-8422-23C86CD05347}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0C27A3C-490B-40CF-B977-A296F4562050}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6186873-EFE7-4B36-870B-89412A5A2F9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5188,7 +5188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A008A68F-017B-472A-9D7F-D37F9F5327B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEB5B0-28BA-4FA1-8DC6-B7BC909E1EB9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6434,18 +6434,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B813C210-D4FE-47F7-872A-D85219711A05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0D116A2-530C-42D8-B658-D6B9D09B9977}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D6BD333-4FE5-47F7-BEC6-FC530BE0CFB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8AA8D19-8268-4DB7-9DDE-7D57D3CC6376}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18701FE4-BCDA-42F3-9434-C61841C74DC0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDA13FB0-3CBD-494E-BC71-18A9D64AED73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A475DF0-C2AE-4B41-AC34-00E905CFB159}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FABA00F-E2DD-4902-AA33-EEA417973644}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4131200-0902-41AA-97A0-3747308BD06B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2C420682-0D2E-4B8C-9E95-7EBD1EE9AD6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C39EA484-1D3A-4D61-A674-22A37C635592}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C22ACB73-3CEF-4870-8231-CF79DA1D7C4A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF3B3771-10C9-47D2-B7C5-5469002F9124}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A534A0C-8CA9-4418-AB1C-2C5F585F0027}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68C31D30-B933-434C-A615-FBB727288CCC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83CB27A3-CCDC-4F97-84DA-41CB085F7370}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB736F5C-9791-4D3D-AF61-4657CC7FB292}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80C12422-B25F-468C-BD64-B843DC433F1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1EDA9F4-0485-4EC9-A505-D2DB8EB8B1C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{109F6127-C833-44E6-B1C9-DB5E881207B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5942A00-ECAF-471F-9557-36FD23F1717A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{686C997E-A075-45A1-85F7-7D3BFA1CB4EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78FA9D4B-173F-4927-887C-F1236A36CB60}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CA8B7047-594F-475C-9F1E-B242DD1A8A83}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6458,7 +6458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94F2208-9670-4F55-A84F-0E7DC63372E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB12CD68-FE20-4D15-AE26-E21B5732EB02}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7719,18 +7719,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CB7BD35-BD88-447E-A062-850AA73153CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EC9CE4E0-B5D9-4053-AF6F-0F6132B71A09}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE6FCADF-6128-41A9-B68B-0D6C2C19FC60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F47CC8DC-5B93-4774-82E3-1404EFD9A137}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84806BE7-88D1-4AB3-B658-1B197F87E833}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A72878F-6859-46D8-8545-C24FBC5FD57A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E62E50A8-4172-4346-A82D-604426B3112B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B29BD34-F426-4A5A-9591-68DC4104F99D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8337CE13-0709-4C1C-9928-6A7BFE7EDB6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C4C5C9E-9EF4-4C69-A21E-A645A42783BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{210470DF-3A5C-436A-99FB-5EFB34155E40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2D5A246-587D-45DE-81D0-B3B9A2EC12F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2630B640-4007-4ECF-8E01-D92A6515A570}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BC05B87-FCFE-4A1D-A7D1-B0A7DD96A655}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C63CB23F-8C68-4971-8CD0-D60BC8BF9AD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BF714BC-4295-4139-8725-DB2C200E249B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82FCA5FA-0FFC-4EF9-B6C3-0F8739F6C931}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB429030-6404-41D3-85EF-83C8FD3F00DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82882FA0-6368-43BA-B7CC-3ABDB4F45114}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73E788DD-FCF5-403B-80AF-8C05678B6995}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{137F1BAC-F480-45EC-A94D-421DA9105179}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66195DA8-94A1-43FD-8F46-D0CD8A5CC0CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8A6D91A-C282-4CC9-B658-C060B5B0B144}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A16D9F69-E861-408A-B320-159C0DB1ADF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7743,7 +7743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C8F641-7631-4753-AEDE-0029CE2D9DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D51EC4-C52A-45C0-9922-6947D528F60F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9006,18 +9006,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C99643CD-586F-48AD-9371-CD6A061BB0C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC7A8D52-D369-4854-AFCE-C5FD51176ECC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8CD32B5-2A08-4942-90BD-1D83A30C11CF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89DC9D7F-21E7-471C-910F-0ADAC25C10AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FA60F90-033E-4BA7-8C10-09871CEA0773}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C039477-4115-41CC-AF56-7AFC5A982BDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7E99B3D-1DB1-42C9-BFCA-96CF38E9AE28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F89B205D-918F-4219-882F-37A7CCB115E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C03537BA-99FE-4D66-A8EE-9FDC6C0E1FF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9D26122-318A-44A3-8E1B-0B8EF84CD00D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4C3BE1E-430A-4D23-B83A-BC89D0E4DCD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC0A5ECA-A3B8-4FBC-BF00-9CC659D836E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C12B822-7677-47FE-A35F-BA43942A92A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57A407FF-91B4-45DC-8B15-5D79B6E70CF0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3692556-E348-4023-B4B9-982C70952900}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{069874CC-427F-4FE2-97D2-FFD5882E1325}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{211AA0A6-9B30-44C1-A533-9BA5D60D3E67}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A996C98-6FBC-472A-854E-6492FB4CE919}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08649FC7-C644-4987-B17B-6D9ED5B4853E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E078BCC2-39B1-43F3-9145-9562CCC1AC8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E23096F4-F76E-4519-AFE1-58316AE0ED24}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72CB1319-D380-484C-B3C2-DD572AAF479A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7158A63-31C3-4318-88E3-7AE11F773880}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9012E110-9F1B-4DDD-B584-D40667E8A289}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9030,7 +9030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5CC352-1A70-451A-B40B-CDEDE6D30D13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31BD237-6E23-49B2-A104-80574953BFE9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10293,18 +10293,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8478E5E1-6E60-4655-AF89-F3A24DBE3D56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6352E446-CD4D-456F-8651-7F828D701370}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2E543A2E-872E-4C6F-98A8-658DF60C98D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A686EBE7-068D-443C-A390-495588E3F20E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C60F0E2B-D2A5-4D49-AFAB-CB974AA2DF9A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD54332C-D15A-418C-851A-D70D1829027A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CAB440F1-B1FA-4973-9DC8-A97ADB7485D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95AB5347-85AC-4279-9BDF-ED8F30D30305}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5D5491E-EEA5-494D-8126-69EFFD435D36}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3968DD04-2055-48B0-B1EA-FB19C18C0835}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4450F8BA-AE3F-42F3-909D-3A1640784116}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FBD962A-8C3B-4597-B838-3BCA3FA5EF0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CDD41CA-9296-4135-8C8E-3EBCEB14F9C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74C3BA9E-B3C0-4630-93BA-3A32BFED6A92}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{07A7EF06-5EF0-440F-BE70-8FCA1842435A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6D4AD05A-8D2C-44C5-9362-6E4ECA7F692C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80CABA2E-3E7A-4143-94B2-5B0B25E309C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB9BDFC7-F4C4-4527-92EF-A37B48D52A3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14AF2ADC-FFCE-4588-BF80-FEEF2B271FD3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17687F85-F1CD-41C2-B33E-07854BF53BD0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C826C0E1-D2B3-447E-872B-126631A3C885}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6566CBC1-AF49-42CB-8E1E-D110F1F201BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBCFBF3A-7938-4439-BD44-C3E1931B82D3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92C3638B-568C-4C04-B95D-9DC3D97D16AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10317,7 +10317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B1705D-8A83-488F-A9C4-F1327CA6777F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC494EE-D8BF-4CB1-BAA1-D860CFCDCE9C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11578,18 +11578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{278F2D47-96B6-4500-B3AC-562F5CE3091A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCFCC4F9-8F77-4E19-BCB7-B12795626B60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD983E2E-2B41-4F08-B8EE-C98A9489F2FD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{031AB7E6-8899-441B-8E26-FE15236612D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C631CFB9-4BA1-4861-B3F4-5B4567451CF7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59750B01-A9B0-4EAF-9142-942AE2AAD912}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC21D8C8-0722-45CF-A9E4-4B5783782D27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{883D5A19-6649-492C-BBEA-F95A323E06C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{818A8B77-EBEC-4892-95CC-D4457465048C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F672CB18-BF00-4496-BC46-D29F0BAEF9BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1431595A-B817-4274-80D0-F9C3A15D8522}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A37B590-6C61-4F5A-B45D-481ECDF3A6B2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{119F0246-4E16-47F2-B6CC-0C992E36C738}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DEE39BFA-9343-482B-AA89-74CA5D05F095}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7D745583-2053-4818-AF6C-FF05BB2F9388}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88DBF5BC-BA22-4CA8-B804-C146B9044C0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31339A87-B0D9-4985-8E49-343CEEC56EBA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6945BEA-0654-4347-A1AB-10268238ABA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{068C4605-E504-438E-905D-49670DAA7FA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1585513B-0436-49A3-8154-AE944632C8C0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF9EF9EB-B356-488E-9036-362D3B24F1E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7170B03-3794-4122-86B7-4E835309648B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDE8EA59-7C3B-4EAD-9FBF-794E74ADE7A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC6CA2DE-7A84-4F89-BE1D-82902BE55BE3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11602,7 +11602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928C57C9-924F-4EDA-9763-F110D8306EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DA507D-8113-4A25-B982-10388BE7DEE5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12865,18 +12865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5210C84-8282-4CEC-B270-7253C634BFE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{902FE24D-EA6B-4B0B-91D6-D3A94DF3EA3A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{45200169-73D7-42C8-831D-9C5711C3E1FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27819122-38E9-4DB0-B5A2-725DADFDACA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD635BE8-1071-45B3-8D7F-A51BF1BAB629}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42F7A4E0-CDE8-49DF-B116-0B926261371E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B122B57D-CADB-4101-89A4-985D326461C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78353288-FD1D-4F34-9C74-57CF46C3A914}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9897C549-7A76-4C29-BE4B-49283D9B7408}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F67F903-41A7-4F28-AE12-4C61F55FF030}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38C93BD6-9CFC-44DC-B5C4-F3D51DD612F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4444A386-3156-47D7-A317-01321EDF1824}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F85D67C-6F17-427F-B5CA-498725F6815C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30BBEC5E-C879-4C9C-AE93-AEC081A0117D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05E23DCC-7DAF-456F-895D-F27EB688558A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33D17F57-B61C-4B0E-B57E-7EE6B37925A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DB239A1-B855-4F29-A99D-324C943F6CEB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87883297-3FEB-4529-96BE-1626801D5298}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2918128-D6C2-47B5-BA14-25C30C904380}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CDDD3BF-FBCF-4A4C-97C3-D6CA8D757C01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D69930D-687F-4E47-9369-1C659EC0F53F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{507B029A-A1F6-43EB-9A96-2D1B21CFC650}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D604C2F-B169-4D1B-8313-74CFB5DDFFB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34120771-38FD-4C80-B20B-B15CAFC548C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12889,7 +12889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904221BA-1D5C-4578-9251-93B7DFB2FDBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4FD865-48F6-481B-A237-EF16E7381696}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14150,18 +14150,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6540494A-1F34-49CE-AFFA-E50FC36D9BD1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D43579B-A363-4013-B115-424CD187CBB2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0FF6AC1F-4869-4B8B-B49D-8F73981D7C27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F982420-294D-4D1E-AE7F-354D079F795E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5DB7FA5-D783-4B40-BC07-FD83C0205F2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FA21AEB-797B-46F4-B27F-812E32E180F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA34F114-90A8-4651-9FF9-892D3EA80A13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C560F540-7C3D-45AF-814F-705F84C83D88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3265692-CE79-43D2-AB24-F202C7AF5DB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52E433BE-C4EC-49A8-B9ED-DAD52D8C84E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{790B6C5D-A047-4E60-9E2F-8355B2501EB3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{787F8DF8-796A-4267-837E-F6BAB23F4D0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11E83450-4179-411F-B512-B147A62370A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA0BD2AE-C026-488A-9A97-B560DD4B9F86}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{840430D7-550C-4472-8BB8-2659973BAFD2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBE01CB4-5A9D-4351-9D87-6CD13365868A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0949277-E06A-4D29-8BD3-9239941E2AF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C1C5C3D-FA1E-4DB2-98E0-C5347C1D3C4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{025CF34D-1B7B-4A61-9256-186BA9635DA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92B1D75A-017E-4329-9C81-543C788010D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71CED225-EC5A-4B2B-893C-A7D0FB8BC94E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABA19097-3469-4967-9B82-844D973023CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{538A9CC3-A454-46FB-99DA-4851054DB5E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2ACD12F-B3E3-4EC3-9A94-0381E14463CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14174,7 +14174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FF3E6D-BCBD-445B-AF83-C58888CBA717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926A8838-A310-4FF5-8D18-A54E45DE4DC7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15435,18 +15435,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C12F114E-EF49-4E8E-AA1A-9D595C981ACF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6447C98C-EBC5-4A9B-9937-704CFC08ED8B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{90392F34-AB8C-4CA9-9995-4E3334EFB0EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFC3CE5A-3BE1-46BC-9D03-E7360D2B5FE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5DB045F-C512-4E4C-9B75-D6F2BF9EF6A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43549D9E-5D9F-478E-B7B6-0E40BF97E9FE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8AB640E-6473-4336-B42A-5828F6AF7FE0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A2AB53B-DB43-4F1C-8479-115BBFF3D43A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92C77629-0AB4-422C-AD96-7526DEF37F86}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F93CEBBC-00C0-49ED-89C8-B651ABCFE213}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50DCBA2C-801D-4FF9-8BEE-13CA995A16D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EAC04895-3F1D-4517-97E2-774BB56FC19A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BCC8BE7-DF2E-4982-BF37-C8954BB4C82E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08041F65-F39F-4CDF-BEDB-359CECA361E9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{059E16E8-9109-4970-9826-35BD11124ED9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43BDA744-6A87-46F1-B6C2-6B39BDB6293F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41D1E89F-9E04-4CED-B246-B087C03103F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7E4DBD8-680E-43AA-8E9C-CB6CA2D1F4E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAE18022-D06F-40C3-B7FA-9BBD6697A533}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40AF5C25-3566-4493-B444-BFFF7FA03A23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC29933B-2B5A-4348-9326-2882D18DD613}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EAA7B6ED-F8E9-4ACB-A922-738A46AA0E4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC3DBC6C-8E2A-4449-9CD1-3F3E0D3B1D84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D086FB60-F4EC-4744-9389-3C9AD2AEBDD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15459,7 +15459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B4B88-390E-48D3-8179-1FB1A2245CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BBBEF-1CA3-42F6-B59B-A4FC5C066677}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16722,18 +16722,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FF60044-3CAA-44A8-8AE9-A4D2E2C9A214}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{712A2910-FC78-4F64-928B-0D61D36F3A91}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6F430D8-AFEE-4AEF-8FA9-6AE32D6754B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B245A4C3-9878-4966-B471-16DAE1B4070E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B0449C6-D70F-487F-A8FC-867B95F8B75B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41689696-012B-40D8-909B-0E71C31A59BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4415AFDC-E15B-4F2E-8B84-8B5A787A2556}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3FB28161-331D-46F4-A833-3B3EE61E197D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F22064D-0AC4-4863-88BD-2DD849B491FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C506BFB-F782-486C-B072-B21A02DF0048}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{581C6123-40C6-4525-AB31-4285F86B49D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9DEF3F4-1503-407C-BBC8-BA94E38D8239}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F85E29A6-2CEF-467A-9D32-F2B1C006FA58}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{077CE037-096F-495F-9D9E-F4069146F54E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B020F537-33CB-428E-B1FF-BAC93BA2BF13}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4FEC19C2-77F4-42E4-A066-8479BB857B52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A972C82-9D65-4907-9192-D523B0A374D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC86A7F3-5253-4B74-9873-01937669E8C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C693E248-7C97-4C70-8C20-180C84986D62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A094280-15D5-408D-95F6-348FD8A9CDC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BE43CC9-93E6-4A9E-9153-D78CD9B3A98C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DADA690-1D94-470C-990D-F3AFA6D6FC79}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B551D5C-D23A-407A-8946-9A08DCB0A55C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55C5C17E-6B5F-4E0A-BB11-0243E91596F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
